--- a/excel/sponsorLocations.xlsx
+++ b/excel/sponsorLocations.xlsx
@@ -73,8 +73,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D21" totalsRowShown="0">
-  <autoFilter ref="A1:D21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D24" totalsRowShown="0">
+  <autoFilter ref="A1:D24"/>
   <tableColumns count="4">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="id_sponsor"/>
@@ -370,7 +370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,192 +425,225 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>336</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>105</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>115</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C9">
-        <v>120</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>125</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C11">
-        <v>135</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>140</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>145</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>425</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>425</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>425</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
         <v>36</v>
       </c>
-      <c r="C16">
+      <c r="C21">
         <v>425</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>27</v>
-      </c>
-      <c r="B17">
-        <v>37</v>
-      </c>
-      <c r="C17">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>47</v>
-      </c>
-      <c r="C19">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>32</v>
-      </c>
-      <c r="B20">
-        <v>31</v>
-      </c>
-      <c r="C20">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>33</v>
-      </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>77</v>
+      </c>
+      <c r="C24">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
